--- a/biology/Botanique/Cannabis_en_Autriche/Cannabis_en_Autriche.xlsx
+++ b/biology/Botanique/Cannabis_en_Autriche/Cannabis_en_Autriche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La consommation de cannabis en Autriche est illégale. Néanmoins, l’amendement de 2008 ayant entraîné la suppression du concept de grandes et petites quantités comme moyen de différencier l’usage personnel et la distribution, la culture d’un nombre illimité de plants est devenue légale en Autriche, à condition qu'ils ne soient pas en phase de floraison[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La consommation de cannabis en Autriche est illégale. Néanmoins, l’amendement de 2008 ayant entraîné la suppression du concept de grandes et petites quantités comme moyen de différencier l’usage personnel et la distribution, la culture d’un nombre illimité de plants est devenue légale en Autriche, à condition qu'ils ne soient pas en phase de floraison
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Légalisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le débat sur la légalisation totale du cannabis s’intensifie actuellement, avec le soutien de poids de plusieurs partis politiques majeurs[Lesquels ?]. 
 </t>
